--- a/Code/Results/Cases/Case_2_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000926333644995</v>
+        <v>1.023261219476147</v>
       </c>
       <c r="D2">
-        <v>1.017368682175969</v>
+        <v>1.028297207922353</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>1.006724576563104</v>
+        <v>1.034439382986344</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041041845887395</v>
+        <v>1.03255988479546</v>
       </c>
       <c r="J2">
-        <v>1.023079373490022</v>
+        <v>1.028442431729336</v>
       </c>
       <c r="K2">
-        <v>1.028591232764893</v>
+        <v>1.031114434729104</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.018091015625987</v>
+        <v>1.037238853434959</v>
       </c>
       <c r="N2">
-        <v>1.011712605525974</v>
+        <v>1.013551064023137</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004338379700125</v>
+        <v>1.023978425109199</v>
       </c>
       <c r="D3">
-        <v>1.019713830630909</v>
+        <v>1.028811342425153</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.011071458583147</v>
+        <v>1.035434628782692</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041892494617229</v>
+        <v>1.032695608688672</v>
       </c>
       <c r="J3">
-        <v>1.024711470766911</v>
+        <v>1.02879924455526</v>
       </c>
       <c r="K3">
-        <v>1.030100533118502</v>
+        <v>1.031437268217526</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.021564611145718</v>
+        <v>1.038042791649186</v>
       </c>
       <c r="N3">
-        <v>1.012254754932968</v>
+        <v>1.013669317856763</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006506729862578</v>
+        <v>1.024443020837871</v>
       </c>
       <c r="D4">
-        <v>1.021206933838922</v>
+        <v>1.02914444909305</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.013835204641809</v>
+        <v>1.036079568322224</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042424722025265</v>
+        <v>1.032782505501596</v>
       </c>
       <c r="J4">
-        <v>1.025745444709707</v>
+        <v>1.029029946534061</v>
       </c>
       <c r="K4">
-        <v>1.031055973931997</v>
+        <v>1.031645875306287</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.023769470096962</v>
+        <v>1.038563331816661</v>
       </c>
       <c r="N4">
-        <v>1.012598202584687</v>
+        <v>1.013745763720936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.0074091191287</v>
+        <v>1.024638458531735</v>
       </c>
       <c r="D5">
-        <v>1.021828939261257</v>
+        <v>1.029284587671758</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.014985742942053</v>
+        <v>1.036350926650254</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042644185384157</v>
+        <v>1.032818814672741</v>
       </c>
       <c r="J5">
-        <v>1.026174956721162</v>
+        <v>1.029126889478181</v>
       </c>
       <c r="K5">
-        <v>1.031452678096706</v>
+        <v>1.031733503694849</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.024686454495431</v>
+        <v>1.038782246582119</v>
       </c>
       <c r="N5">
-        <v>1.012740865302634</v>
+        <v>1.013777883864303</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007560103125556</v>
+        <v>1.024671280461283</v>
       </c>
       <c r="D6">
-        <v>1.021933046645888</v>
+        <v>1.029308123400162</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.015178269244819</v>
+        <v>1.036396502103723</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042680785001213</v>
+        <v>1.032824898090585</v>
       </c>
       <c r="J6">
-        <v>1.026246773882982</v>
+        <v>1.029143164002226</v>
       </c>
       <c r="K6">
-        <v>1.031518998450375</v>
+        <v>1.031748212747019</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.024839846062621</v>
+        <v>1.038819007968319</v>
       </c>
       <c r="N6">
-        <v>1.012764719089454</v>
+        <v>1.013783275928384</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006518823380132</v>
+        <v>1.024445631810179</v>
       </c>
       <c r="D7">
-        <v>1.021215267304553</v>
+        <v>1.029146321238772</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.0138506222535</v>
+        <v>1.036083193340251</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042427671249263</v>
+        <v>1.032782991540618</v>
       </c>
       <c r="J7">
-        <v>1.025751204030554</v>
+        <v>1.02903124206539</v>
       </c>
       <c r="K7">
-        <v>1.031061294075476</v>
+        <v>1.031647046477711</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.023781761542335</v>
+        <v>1.038566256655049</v>
       </c>
       <c r="N7">
-        <v>1.012600115568989</v>
+        <v>1.013746192981902</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002087786223333</v>
+        <v>1.023503494601282</v>
       </c>
       <c r="D8">
-        <v>1.018166365673334</v>
+        <v>1.028470872564137</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.008204003830522</v>
+        <v>1.034775533609151</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041333139192556</v>
+        <v>1.03260594458355</v>
       </c>
       <c r="J8">
-        <v>1.023635599099055</v>
+        <v>1.028563054840753</v>
       </c>
       <c r="K8">
-        <v>1.029105758562634</v>
+        <v>1.031223596716797</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.019273981692963</v>
+        <v>1.037510477252163</v>
       </c>
       <c r="N8">
-        <v>1.011897375354228</v>
+        <v>1.01359104318698</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9939649873640525</v>
+        <v>1.021847358644587</v>
       </c>
       <c r="D9">
-        <v>1.012600736406244</v>
+        <v>1.027283995419433</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9978606731948294</v>
+        <v>1.032478601613096</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039261653024331</v>
+        <v>1.032286904998049</v>
       </c>
       <c r="J9">
-        <v>1.019732672315859</v>
+        <v>1.027736722102389</v>
       </c>
       <c r="K9">
-        <v>1.025492630822476</v>
+        <v>1.030475270560642</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.010988555104953</v>
+        <v>1.035652709598421</v>
       </c>
       <c r="N9">
-        <v>1.010600848629734</v>
+        <v>1.013317113363868</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.988319902383362</v>
+        <v>1.020746086084202</v>
       </c>
       <c r="D10">
-        <v>1.008751014930628</v>
+        <v>1.026495100745501</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9906739152235272</v>
+        <v>1.03095232806067</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037779650764578</v>
+        <v>1.032069504094287</v>
       </c>
       <c r="J10">
-        <v>1.017004722574693</v>
+        <v>1.027185008675492</v>
       </c>
       <c r="K10">
-        <v>1.022964044474061</v>
+        <v>1.02997500652092</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.005213621658011</v>
+        <v>1.034416058847296</v>
       </c>
       <c r="N10">
-        <v>1.009694643986211</v>
+        <v>1.01313415663474</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9858166491229683</v>
+        <v>1.020269914219403</v>
       </c>
       <c r="D11">
-        <v>1.007048751695449</v>
+        <v>1.026154081793609</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9874864880778812</v>
+        <v>1.030292641862659</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037112769930035</v>
+        <v>1.031974258700735</v>
       </c>
       <c r="J11">
-        <v>1.015791611959654</v>
+        <v>1.026945929215685</v>
       </c>
       <c r="K11">
-        <v>1.021838951972427</v>
+        <v>1.029758073740495</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.002648313228131</v>
+        <v>1.033881033305106</v>
       </c>
       <c r="N11">
-        <v>1.009291672380813</v>
+        <v>1.013054859432977</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9848775875200682</v>
+        <v>1.020093147765751</v>
       </c>
       <c r="D12">
-        <v>1.006410946967216</v>
+        <v>1.026027500760039</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9862906062559588</v>
+        <v>1.030047786775632</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036861170853905</v>
+        <v>1.031938714302162</v>
       </c>
       <c r="J12">
-        <v>1.015336036492191</v>
+        <v>1.026857097973536</v>
       </c>
       <c r="K12">
-        <v>1.021416345470704</v>
+        <v>1.029677449057398</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.001685255664557</v>
+        <v>1.033682370266817</v>
       </c>
       <c r="N12">
-        <v>1.009140342534684</v>
+        <v>1.013025393944772</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9850794442052762</v>
+        <v>1.020131059989886</v>
       </c>
       <c r="D13">
-        <v>1.006548010905559</v>
+        <v>1.026054648783681</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9865476765828994</v>
+        <v>1.030100300776279</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036915317558346</v>
+        <v>1.031946346198537</v>
       </c>
       <c r="J13">
-        <v>1.015433986999408</v>
+        <v>1.026876153756705</v>
       </c>
       <c r="K13">
-        <v>1.021507211224495</v>
+        <v>1.029694745397204</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.001892303560266</v>
+        <v>1.033724981007322</v>
       </c>
       <c r="N13">
-        <v>1.009172878870183</v>
+        <v>1.013031714882307</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.985739216884723</v>
+        <v>1.020255300496967</v>
       </c>
       <c r="D14">
-        <v>1.006996144143532</v>
+        <v>1.026143616748286</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.987387882977654</v>
+        <v>1.030272398349211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037092052677713</v>
+        <v>1.031971323972619</v>
       </c>
       <c r="J14">
-        <v>1.015754056463488</v>
+        <v>1.026938586931189</v>
       </c>
       <c r="K14">
-        <v>1.021804115963919</v>
+        <v>1.0297514102146</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.002568917199027</v>
+        <v>1.033864610335747</v>
       </c>
       <c r="N14">
-        <v>1.009279197384733</v>
+        <v>1.013052424028138</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9861444878162869</v>
+        <v>1.020331863139877</v>
       </c>
       <c r="D15">
-        <v>1.00727151763006</v>
+        <v>1.026198444640362</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9879039630085209</v>
+        <v>1.030378457468179</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037200426200693</v>
+        <v>1.031986691624027</v>
       </c>
       <c r="J15">
-        <v>1.015950597373521</v>
+        <v>1.026977050595117</v>
       </c>
       <c r="K15">
-        <v>1.021986421423315</v>
+        <v>1.029786317192826</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.00298443686206</v>
+        <v>1.033950649791352</v>
       </c>
       <c r="N15">
-        <v>1.00934448350312</v>
+        <v>1.013065182173824</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9884847611241919</v>
+        <v>1.020777702662784</v>
       </c>
       <c r="D16">
-        <v>1.008863227493007</v>
+        <v>1.026517745374706</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9908838142145122</v>
+        <v>1.030996134670188</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037823370093378</v>
+        <v>1.032075801899845</v>
       </c>
       <c r="J16">
-        <v>1.017084545622707</v>
+        <v>1.02720087181485</v>
       </c>
       <c r="K16">
-        <v>1.023038063458948</v>
+        <v>1.02998939709416</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.005382470125431</v>
+        <v>1.034451576373009</v>
       </c>
       <c r="N16">
-        <v>1.009721160048591</v>
+        <v>1.013139417767541</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9899367140609731</v>
+        <v>1.021057551098079</v>
       </c>
       <c r="D17">
-        <v>1.009852071619185</v>
+        <v>1.026718190217439</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9927323776240646</v>
+        <v>1.031383909610422</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038207314084299</v>
+        <v>1.032131401871833</v>
       </c>
       <c r="J17">
-        <v>1.017787178882641</v>
+        <v>1.027341220523962</v>
       </c>
       <c r="K17">
-        <v>1.023689535652663</v>
+        <v>1.03011670019451</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.006869045947149</v>
+        <v>1.034765916420545</v>
       </c>
       <c r="N17">
-        <v>1.009954566483464</v>
+        <v>1.013185963802172</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9907779589415826</v>
+        <v>1.021220848061268</v>
       </c>
       <c r="D18">
-        <v>1.010425455243468</v>
+        <v>1.026835161916901</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9938033687482162</v>
+        <v>1.031610207891611</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038428841859501</v>
+        <v>1.032163725313192</v>
       </c>
       <c r="J18">
-        <v>1.018193948777556</v>
+        <v>1.027423065730645</v>
       </c>
       <c r="K18">
-        <v>1.024066625987877</v>
+        <v>1.030190923454164</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.007729928308306</v>
+        <v>1.034949309213863</v>
       </c>
       <c r="N18">
-        <v>1.010089691938131</v>
+        <v>1.013213105982911</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9910638541627115</v>
+        <v>1.021276539262058</v>
       </c>
       <c r="D19">
-        <v>1.010620394831429</v>
+        <v>1.026875055621727</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9941673373896264</v>
+        <v>1.031687389342752</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03850396980006</v>
+        <v>1.032174728588681</v>
       </c>
       <c r="J19">
-        <v>1.018332132385634</v>
+        <v>1.027450969773511</v>
       </c>
       <c r="K19">
-        <v>1.024194716468549</v>
+        <v>1.030216226461561</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.008022426876699</v>
+        <v>1.03501184876635</v>
       </c>
       <c r="N19">
-        <v>1.010135595530631</v>
+        <v>1.013222359508985</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9897815209192865</v>
+        <v>1.021027519158471</v>
       </c>
       <c r="D20">
-        <v>1.009746330334361</v>
+        <v>1.026696678617377</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9925347977210128</v>
+        <v>1.031342293049667</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038166371635653</v>
+        <v>1.032125447592291</v>
       </c>
       <c r="J20">
-        <v>1.017712111203284</v>
+        <v>1.02732616427076</v>
       </c>
       <c r="K20">
-        <v>1.023619940186569</v>
+        <v>1.030103044921476</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.006710196245315</v>
+        <v>1.034732186193108</v>
       </c>
       <c r="N20">
-        <v>1.009929629745311</v>
+        <v>1.013180970608836</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9855451886707668</v>
+        <v>1.020218711851457</v>
       </c>
       <c r="D21">
-        <v>1.006864333824194</v>
+        <v>1.026117415440226</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9871407973231791</v>
+        <v>1.030221714875196</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03704011687836</v>
+        <v>1.031963973218397</v>
       </c>
       <c r="J21">
-        <v>1.015659942746312</v>
+        <v>1.026920202639365</v>
       </c>
       <c r="K21">
-        <v>1.021716815912386</v>
+        <v>1.029734725103974</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.00236995644694</v>
+        <v>1.033823491056015</v>
       </c>
       <c r="N21">
-        <v>1.009247935221868</v>
+        <v>1.013046326000649</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9828279562468251</v>
+        <v>1.019710790885551</v>
       </c>
       <c r="D22">
-        <v>1.005020329421189</v>
+        <v>1.025753723127697</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9836800387349049</v>
+        <v>1.029518215088904</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036309431540492</v>
+        <v>1.031861487661395</v>
       </c>
       <c r="J22">
-        <v>1.01434079818904</v>
+        <v>1.026664805776049</v>
       </c>
       <c r="K22">
-        <v>1.020492984360977</v>
+        <v>1.029502881149922</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9995818812553495</v>
+        <v>1.033252559780967</v>
       </c>
       <c r="N22">
-        <v>1.008809758878335</v>
+        <v>1.012961606281245</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9842736383980712</v>
+        <v>1.019979991122759</v>
       </c>
       <c r="D23">
-        <v>1.006000973219203</v>
+        <v>1.025946474034931</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9855214293846531</v>
+        <v>1.029891053430611</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036698958669868</v>
+        <v>1.031915907993207</v>
       </c>
       <c r="J23">
-        <v>1.015042900926587</v>
+        <v>1.026800210575549</v>
       </c>
       <c r="K23">
-        <v>1.021144400628771</v>
+        <v>1.029625810907178</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.001065665977934</v>
+        <v>1.033555182765663</v>
       </c>
       <c r="N23">
-        <v>1.009042971939572</v>
+        <v>1.013006523674832</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9898516634663804</v>
+        <v>1.021041089095257</v>
       </c>
       <c r="D24">
-        <v>1.009794120738769</v>
+        <v>1.026706398611894</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9926240979204156</v>
+        <v>1.031361097424693</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038184879237322</v>
+        <v>1.032128138405864</v>
       </c>
       <c r="J24">
-        <v>1.017746040512727</v>
+        <v>1.027332967598705</v>
       </c>
       <c r="K24">
-        <v>1.023651396339824</v>
+        <v>1.03010921524592</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.00678199275198</v>
+        <v>1.034747427296518</v>
       </c>
       <c r="N24">
-        <v>1.00994090072121</v>
+        <v>1.013183226840687</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9961040457398953</v>
+        <v>1.022275020718611</v>
       </c>
       <c r="D25">
-        <v>1.01406341233803</v>
+        <v>1.027590423855988</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.000583940607813</v>
+        <v>1.033071536013649</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039814600887373</v>
+        <v>1.032370217031989</v>
       </c>
       <c r="J25">
-        <v>1.020763239426289</v>
+        <v>1.027950499245181</v>
       </c>
       <c r="K25">
-        <v>1.026447265316596</v>
+        <v>1.030668979006</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.013173198408789</v>
+        <v>1.036132664845238</v>
       </c>
       <c r="N25">
-        <v>1.010943200493497</v>
+        <v>1.013387991884234</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_136/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_136/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023261219476147</v>
+        <v>1.000926333644995</v>
       </c>
       <c r="D2">
-        <v>1.028297207922353</v>
+        <v>1.017368682175969</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.034439382986344</v>
+        <v>1.006724576563104</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03255988479546</v>
+        <v>1.041041845887395</v>
       </c>
       <c r="J2">
-        <v>1.028442431729336</v>
+        <v>1.023079373490021</v>
       </c>
       <c r="K2">
-        <v>1.031114434729104</v>
+        <v>1.028591232764893</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.037238853434959</v>
+        <v>1.018091015625988</v>
       </c>
       <c r="N2">
-        <v>1.013551064023137</v>
+        <v>1.011712605525974</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023978425109199</v>
+        <v>1.004338379700125</v>
       </c>
       <c r="D3">
-        <v>1.028811342425153</v>
+        <v>1.019713830630909</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.035434628782692</v>
+        <v>1.011071458583147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032695608688672</v>
+        <v>1.041892494617229</v>
       </c>
       <c r="J3">
-        <v>1.02879924455526</v>
+        <v>1.024711470766911</v>
       </c>
       <c r="K3">
-        <v>1.031437268217526</v>
+        <v>1.030100533118502</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.038042791649186</v>
+        <v>1.021564611145717</v>
       </c>
       <c r="N3">
-        <v>1.013669317856763</v>
+        <v>1.012254754932968</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024443020837871</v>
+        <v>1.006506729862578</v>
       </c>
       <c r="D4">
-        <v>1.02914444909305</v>
+        <v>1.021206933838922</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.036079568322224</v>
+        <v>1.013835204641809</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032782505501596</v>
+        <v>1.042424722025265</v>
       </c>
       <c r="J4">
-        <v>1.029029946534061</v>
+        <v>1.025745444709707</v>
       </c>
       <c r="K4">
-        <v>1.031645875306287</v>
+        <v>1.031055973931997</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.038563331816661</v>
+        <v>1.023769470096962</v>
       </c>
       <c r="N4">
-        <v>1.013745763720936</v>
+        <v>1.012598202584687</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024638458531735</v>
+        <v>1.0074091191287</v>
       </c>
       <c r="D5">
-        <v>1.029284587671758</v>
+        <v>1.021828939261257</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.036350926650254</v>
+        <v>1.014985742942052</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032818814672741</v>
+        <v>1.042644185384157</v>
       </c>
       <c r="J5">
-        <v>1.029126889478181</v>
+        <v>1.026174956721161</v>
       </c>
       <c r="K5">
-        <v>1.031733503694849</v>
+        <v>1.031452678096706</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.038782246582119</v>
+        <v>1.02468645449543</v>
       </c>
       <c r="N5">
-        <v>1.013777883864303</v>
+        <v>1.012740865302634</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024671280461283</v>
+        <v>1.007560103125555</v>
       </c>
       <c r="D6">
-        <v>1.029308123400162</v>
+        <v>1.021933046645888</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.036396502103723</v>
+        <v>1.015178269244818</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032824898090585</v>
+        <v>1.042680785001213</v>
       </c>
       <c r="J6">
-        <v>1.029143164002226</v>
+        <v>1.026246773882981</v>
       </c>
       <c r="K6">
-        <v>1.031748212747019</v>
+        <v>1.031518998450375</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.038819007968319</v>
+        <v>1.02483984606262</v>
       </c>
       <c r="N6">
-        <v>1.013783275928384</v>
+        <v>1.012764719089453</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024445631810179</v>
+        <v>1.006518823380133</v>
       </c>
       <c r="D7">
-        <v>1.029146321238772</v>
+        <v>1.021215267304553</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.036083193340251</v>
+        <v>1.013850622253501</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032782991540618</v>
+        <v>1.042427671249263</v>
       </c>
       <c r="J7">
-        <v>1.02903124206539</v>
+        <v>1.025751204030554</v>
       </c>
       <c r="K7">
-        <v>1.031647046477711</v>
+        <v>1.031061294075477</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.038566256655049</v>
+        <v>1.023781761542335</v>
       </c>
       <c r="N7">
-        <v>1.013746192981902</v>
+        <v>1.012600115568989</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023503494601282</v>
+        <v>1.002087786223333</v>
       </c>
       <c r="D8">
-        <v>1.028470872564137</v>
+        <v>1.018166365673334</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.034775533609151</v>
+        <v>1.008204003830523</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03260594458355</v>
+        <v>1.041333139192556</v>
       </c>
       <c r="J8">
-        <v>1.028563054840753</v>
+        <v>1.023635599099056</v>
       </c>
       <c r="K8">
-        <v>1.031223596716797</v>
+        <v>1.029105758562635</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.037510477252163</v>
+        <v>1.019273981692963</v>
       </c>
       <c r="N8">
-        <v>1.01359104318698</v>
+        <v>1.011897375354228</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021847358644587</v>
+        <v>0.9939649873640524</v>
       </c>
       <c r="D9">
-        <v>1.027283995419433</v>
+        <v>1.012600736406243</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.032478601613096</v>
+        <v>0.9978606731948287</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032286904998049</v>
+        <v>1.039261653024331</v>
       </c>
       <c r="J9">
-        <v>1.027736722102389</v>
+        <v>1.019732672315859</v>
       </c>
       <c r="K9">
-        <v>1.030475270560642</v>
+        <v>1.025492630822475</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.035652709598421</v>
+        <v>1.010988555104952</v>
       </c>
       <c r="N9">
-        <v>1.013317113363868</v>
+        <v>1.010600848629734</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020746086084202</v>
+        <v>0.9883199023833615</v>
       </c>
       <c r="D10">
-        <v>1.026495100745501</v>
+        <v>1.008751014930628</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.03095232806067</v>
+        <v>0.9906739152235269</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032069504094287</v>
+        <v>1.037779650764578</v>
       </c>
       <c r="J10">
-        <v>1.027185008675492</v>
+        <v>1.017004722574692</v>
       </c>
       <c r="K10">
-        <v>1.02997500652092</v>
+        <v>1.02296404447406</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.034416058847296</v>
+        <v>1.00521362165801</v>
       </c>
       <c r="N10">
-        <v>1.01313415663474</v>
+        <v>1.009694643986211</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020269914219403</v>
+        <v>0.985816649122968</v>
       </c>
       <c r="D11">
-        <v>1.026154081793609</v>
+        <v>1.007048751695449</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.030292641862659</v>
+        <v>0.9874864880778804</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031974258700735</v>
+        <v>1.037112769930035</v>
       </c>
       <c r="J11">
-        <v>1.026945929215685</v>
+        <v>1.015791611959653</v>
       </c>
       <c r="K11">
-        <v>1.029758073740495</v>
+        <v>1.021838951972426</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.033881033305106</v>
+        <v>1.002648313228131</v>
       </c>
       <c r="N11">
-        <v>1.013054859432977</v>
+        <v>1.009291672380813</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020093147765751</v>
+        <v>0.9848775875200678</v>
       </c>
       <c r="D12">
-        <v>1.026027500760039</v>
+        <v>1.006410946967215</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.030047786775632</v>
+        <v>0.9862906062559582</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031938714302162</v>
+        <v>1.036861170853904</v>
       </c>
       <c r="J12">
-        <v>1.026857097973536</v>
+        <v>1.01533603649219</v>
       </c>
       <c r="K12">
-        <v>1.029677449057398</v>
+        <v>1.021416345470703</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.033682370266817</v>
+        <v>1.001685255664556</v>
       </c>
       <c r="N12">
-        <v>1.013025393944772</v>
+        <v>1.009140342534684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020131059989886</v>
+        <v>0.9850794442052756</v>
       </c>
       <c r="D13">
-        <v>1.026054648783681</v>
+        <v>1.006548010905558</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.030100300776279</v>
+        <v>0.9865476765828987</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031946346198537</v>
+        <v>1.036915317558346</v>
       </c>
       <c r="J13">
-        <v>1.026876153756705</v>
+        <v>1.015433986999407</v>
       </c>
       <c r="K13">
-        <v>1.029694745397204</v>
+        <v>1.021507211224494</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.033724981007322</v>
+        <v>1.001892303560265</v>
       </c>
       <c r="N13">
-        <v>1.013031714882307</v>
+        <v>1.009172878870182</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020255300496967</v>
+        <v>0.9857392168847231</v>
       </c>
       <c r="D14">
-        <v>1.026143616748286</v>
+        <v>1.006996144143532</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.030272398349211</v>
+        <v>0.9873878829776539</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031971323972619</v>
+        <v>1.037092052677713</v>
       </c>
       <c r="J14">
-        <v>1.026938586931189</v>
+        <v>1.015754056463488</v>
       </c>
       <c r="K14">
-        <v>1.0297514102146</v>
+        <v>1.021804115963919</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.033864610335747</v>
+        <v>1.002568917199027</v>
       </c>
       <c r="N14">
-        <v>1.013052424028138</v>
+        <v>1.009279197384733</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.020331863139877</v>
+        <v>0.9861444878162858</v>
       </c>
       <c r="D15">
-        <v>1.026198444640362</v>
+        <v>1.007271517630059</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.030378457468179</v>
+        <v>0.9879039630085205</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031986691624027</v>
+        <v>1.037200426200693</v>
       </c>
       <c r="J15">
-        <v>1.026977050595117</v>
+        <v>1.01595059737352</v>
       </c>
       <c r="K15">
-        <v>1.029786317192826</v>
+        <v>1.021986421423314</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.033950649791352</v>
+        <v>1.00298443686206</v>
       </c>
       <c r="N15">
-        <v>1.013065182173824</v>
+        <v>1.009344483503119</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020777702662784</v>
+        <v>0.9884847611241923</v>
       </c>
       <c r="D16">
-        <v>1.026517745374706</v>
+        <v>1.008863227493007</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.030996134670188</v>
+        <v>0.9908838142145127</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032075801899845</v>
+        <v>1.037823370093378</v>
       </c>
       <c r="J16">
-        <v>1.02720087181485</v>
+        <v>1.017084545622708</v>
       </c>
       <c r="K16">
-        <v>1.02998939709416</v>
+        <v>1.023038063458948</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.034451576373009</v>
+        <v>1.005382470125431</v>
       </c>
       <c r="N16">
-        <v>1.013139417767541</v>
+        <v>1.009721160048591</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021057551098079</v>
+        <v>0.9899367140609723</v>
       </c>
       <c r="D17">
-        <v>1.026718190217439</v>
+        <v>1.009852071619184</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.031383909610422</v>
+        <v>0.9927323776240636</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032131401871833</v>
+        <v>1.038207314084299</v>
       </c>
       <c r="J17">
-        <v>1.027341220523962</v>
+        <v>1.01778717888264</v>
       </c>
       <c r="K17">
-        <v>1.03011670019451</v>
+        <v>1.023689535652663</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.034765916420545</v>
+        <v>1.006869045947148</v>
       </c>
       <c r="N17">
-        <v>1.013185963802172</v>
+        <v>1.009954566483464</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021220848061268</v>
+        <v>0.990777958941582</v>
       </c>
       <c r="D18">
-        <v>1.026835161916901</v>
+        <v>1.010425455243468</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.031610207891611</v>
+        <v>0.9938033687482158</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032163725313192</v>
+        <v>1.0384288418595</v>
       </c>
       <c r="J18">
-        <v>1.027423065730645</v>
+        <v>1.018193948777555</v>
       </c>
       <c r="K18">
-        <v>1.030190923454164</v>
+        <v>1.024066625987876</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.034949309213863</v>
+        <v>1.007729928308306</v>
       </c>
       <c r="N18">
-        <v>1.013213105982911</v>
+        <v>1.010089691938131</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021276539262058</v>
+        <v>0.9910638541627107</v>
       </c>
       <c r="D19">
-        <v>1.026875055621727</v>
+        <v>1.010620394831428</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.031687389342752</v>
+        <v>0.9941673373896254</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032174728588681</v>
+        <v>1.03850396980006</v>
       </c>
       <c r="J19">
-        <v>1.027450969773511</v>
+        <v>1.018332132385633</v>
       </c>
       <c r="K19">
-        <v>1.030216226461561</v>
+        <v>1.024194716468548</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.03501184876635</v>
+        <v>1.008022426876698</v>
       </c>
       <c r="N19">
-        <v>1.013222359508985</v>
+        <v>1.010135595530631</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021027519158471</v>
+        <v>0.9897815209192865</v>
       </c>
       <c r="D20">
-        <v>1.026696678617377</v>
+        <v>1.009746330334361</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.031342293049667</v>
+        <v>0.9925347977210131</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032125447592291</v>
+        <v>1.038166371635653</v>
       </c>
       <c r="J20">
-        <v>1.02732616427076</v>
+        <v>1.017712111203285</v>
       </c>
       <c r="K20">
-        <v>1.030103044921476</v>
+        <v>1.023619940186569</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.034732186193108</v>
+        <v>1.006710196245315</v>
       </c>
       <c r="N20">
-        <v>1.013180970608836</v>
+        <v>1.009929629745311</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020218711851457</v>
+        <v>0.9855451886707667</v>
       </c>
       <c r="D21">
-        <v>1.026117415440226</v>
+        <v>1.006864333824194</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.030221714875196</v>
+        <v>0.9871407973231787</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031963973218397</v>
+        <v>1.03704011687836</v>
       </c>
       <c r="J21">
-        <v>1.026920202639365</v>
+        <v>1.015659942746311</v>
       </c>
       <c r="K21">
-        <v>1.029734725103974</v>
+        <v>1.021716815912386</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.033823491056015</v>
+        <v>1.002369956446939</v>
       </c>
       <c r="N21">
-        <v>1.013046326000649</v>
+        <v>1.009247935221868</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019710790885551</v>
+        <v>0.9828279562468251</v>
       </c>
       <c r="D22">
-        <v>1.025753723127697</v>
+        <v>1.005020329421189</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.029518215088904</v>
+        <v>0.9836800387349049</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031861487661395</v>
+        <v>1.036309431540492</v>
       </c>
       <c r="J22">
-        <v>1.026664805776049</v>
+        <v>1.01434079818904</v>
       </c>
       <c r="K22">
-        <v>1.029502881149922</v>
+        <v>1.020492984360977</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.033252559780967</v>
+        <v>0.9995818812553495</v>
       </c>
       <c r="N22">
-        <v>1.012961606281245</v>
+        <v>1.008809758878335</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019979991122759</v>
+        <v>0.9842736383980714</v>
       </c>
       <c r="D23">
-        <v>1.025946474034931</v>
+        <v>1.006000973219203</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.029891053430611</v>
+        <v>0.9855214293846533</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031915907993207</v>
+        <v>1.036698958669868</v>
       </c>
       <c r="J23">
-        <v>1.026800210575549</v>
+        <v>1.015042900926587</v>
       </c>
       <c r="K23">
-        <v>1.029625810907178</v>
+        <v>1.021144400628771</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.033555182765663</v>
+        <v>1.001065665977934</v>
       </c>
       <c r="N23">
-        <v>1.013006523674832</v>
+        <v>1.009042971939572</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021041089095257</v>
+        <v>0.9898516634663806</v>
       </c>
       <c r="D24">
-        <v>1.026706398611894</v>
+        <v>1.00979412073877</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.031361097424693</v>
+        <v>0.9926240979204157</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032128138405864</v>
+        <v>1.038184879237322</v>
       </c>
       <c r="J24">
-        <v>1.027332967598705</v>
+        <v>1.017746040512727</v>
       </c>
       <c r="K24">
-        <v>1.03010921524592</v>
+        <v>1.023651396339824</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.034747427296518</v>
+        <v>1.00678199275198</v>
       </c>
       <c r="N24">
-        <v>1.013183226840687</v>
+        <v>1.00994090072121</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022275020718611</v>
+        <v>0.996104045739895</v>
       </c>
       <c r="D25">
-        <v>1.027590423855988</v>
+        <v>1.01406341233803</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.033071536013649</v>
+        <v>1.000583940607813</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032370217031989</v>
+        <v>1.039814600887373</v>
       </c>
       <c r="J25">
-        <v>1.027950499245181</v>
+        <v>1.020763239426289</v>
       </c>
       <c r="K25">
-        <v>1.030668979006</v>
+        <v>1.026447265316595</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.036132664845238</v>
+        <v>1.013173198408789</v>
       </c>
       <c r="N25">
-        <v>1.013387991884234</v>
+        <v>1.010943200493497</v>
       </c>
     </row>
   </sheetData>
